--- a/PLSstatic_predicted_factors_matrix_6.xlsx
+++ b/PLSstatic_predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-1.04339701874421</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.9774088359738191</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.9260098732378335</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.8869912889505407</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.858488390194053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.8389161318929186</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.8277824241468097</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.8229289489498454</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.8233885862315052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.8283185111012731</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.8360370845693981</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.8468750459682306</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.8602496568576941</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.8756478756967978</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.8926187046942464</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.9096387149011662</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.9274896696395962</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.9458711440197142</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.9645227370166261</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.9832203936124961</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.000444814995257</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.017367864654859</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.033859739136957</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.051203278556719</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.067911847167308</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.083916640432743</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.099165611270656</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.113621786385341</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.127261365244298</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.140071957636164</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.150541454648923</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.160227544197511</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.169143957627305</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.177310854768125</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.184753218465062</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.189832442303852</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-1.194315733060046</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1.198234769066023</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1.203303565842463</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1.206114217214457</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-1.208468994326322</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-1.21040117793767</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-1.211943770491201</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-1.213128928013802</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>-0.8928390775490198</v>
       </c>
+      <c r="F3" t="n">
+        <v>-0.9295691223805279</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.9506081835431039</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.9584958624788651</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.9554555733256235</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.9434336749699291</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.926741383993284</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.9041166033482554</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.8767965232876254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.8458682558741433</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.8100874515976197</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.7727153638086741</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.7344755001627015</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.6959826758137101</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.6577545703910774</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.6184880422682273</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.5805500918814411</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.5442035912433147</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.5096501756330069</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.4770367409301903</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.4451585089569508</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.4156241042039616</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.3884235825261122</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.3645730106150588</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.3427614125130561</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.3229417240753715</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.3050483670458357</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.2890023783452976</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.2747146207327405</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.2620884980214591</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.250307290777561</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.2400924582442874</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.231317299505231</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.2238587664279438</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.2175974589645066</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.2117656381110924</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.2069807065185107</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.2031240305592584</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.200706795783645</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1983353829502715</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1965926706101023</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1953920152615165</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1946549826125808</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-0.1943105124885098</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.4686930106430804</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.3713173499470918</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2870240792396445</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2142301688265941</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1515637252605705</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0978358777892426</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.05250507100174726</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01381336836159821</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.01899386691413857</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.04655858089071054</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.06924039535722647</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.08762622799816604</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.1022295011225691</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.1135164931068917</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1219088030521252</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1271746528685813</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.1302562361746959</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.1314989602641692</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.1311973197644252</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.1296132105895241</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.1262893685279849</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.1221729923231046</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.1174712732947871</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.1129687715043041</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.1081196757025077</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.1030225095298731</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.09777995721540768</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.09248097628219829</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.08720077445795307</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.082002093702384</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.07650396017194167</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.07123362329394087</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.06623380323358879</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.0615241490678832</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.05711637094358485</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.05269614962684588</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.04862720530557114</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.04491211944217263</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.04179094735524224</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.03873123899268234</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.03597433773250018</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.03351055595795284</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.03132198623854084</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.02938972715255597</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>0.4535496070160189</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.3853517693618252</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3211757804916662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2615387916267877</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2067402770360452</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1569087010319153</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1126968549450557</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.07296228176829106</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.03761675265002604</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.006497721599968711</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.02055581236473602</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.04361387141448263</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.06298598796880836</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.07898316914829526</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.09191349628200692</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.1015407561325245</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.1086470707320806</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.1135349554339843</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.1164922488731489</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.1177853636802743</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.116961407918236</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.1149961747424069</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.1120939317499641</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.1091009383357241</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.1054524476709817</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.1013027851602486</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.09678059791511237</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.09199834731717078</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.08705402864891966</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.0820322915283922</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.07653293295462671</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.07116908347439437</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.06597855867592702</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.0609965541704989</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.05625053271672336</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.05141800952306061</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.04692238088449368</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.04275830829678566</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.03918122083688436</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.03563563073699676</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.0324073397907539</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.02948020826322731</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.02683983428587022</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.02447093989696054</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>-0.3161543963038476</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.2433249586095998</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1853061272399868</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.1390714602087845</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.102238343945126</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.07292419813007471</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.05024720822905851</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.0321225766190385</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.0176984829063767</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.006281773287339133</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.002776630194455099</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.009763214960321535</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.01506729700133654</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.01900542203559066</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.02183611516723527</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0236275448054413</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.02471466742322724</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.02523393510642526</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0253028625867437</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.02501925866633829</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.02427511646931227</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.02336985445795122</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.02234515591651505</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.02141196250202638</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.02039186396740195</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.01932436775968259</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.01823634699342135</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.01714887899633194</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.01607858646375589</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01503841023864563</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01392040521320524</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.01287855769050964</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01191009744845239</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.01101511130382489</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.01019279024837376</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.009355440913782893</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.008608366737108408</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.007942828540524563</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.007420418068919269</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.006888085858475348</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.006422741390091809</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.006016814324242157</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.005664930076506335</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.005362018236596737</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -550,6 +1324,135 @@
       </c>
       <c r="E7" t="n">
         <v>0.03417589783015922</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04356835525119875</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04893467003474342</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.05129169000531075</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.05142869946228266</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.04995890814166312</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04810880805100771</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.04526481226541624</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.04175232746019072</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0378255485480536</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.03314927995527409</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.02862137127975119</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.02429761165692283</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.02021778412720503</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.01640862544700466</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.01267551499452976</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.009373825161762793</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.006459318944929984</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.003896013155095946</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.001652607717061026</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.0002802121749685259</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.001896487725428441</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.003242428668256735</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.004448794184798006</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.005465844042935836</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.006309897767873133</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.006998383114352072</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.007548002518361132</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.007974530521755487</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.008292756174619515</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.008352116311917752</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.008358264216969726</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.008317899335226572</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.008237181067721524</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.008122439237247051</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.007817454487355822</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.007530318616802353</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.007255990322336393</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.007134952043623159</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.006847139119725453</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.006577259387688558</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.006323217616651187</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.006083569923689727</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.005857599011782486</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_factors_matrix_6.xlsx
+++ b/PLSstatic_predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-1.211943770491201</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-1.213128928013802</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>-0.1946549826125808</v>
       </c>
-      <c r="AV3" t="n">
-        <v>-0.1943105124885098</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>-0.03132198623854084</v>
       </c>
-      <c r="AV4" t="n">
-        <v>-0.02938972715255597</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.02683983428587022</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.02447093989696054</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.005664930076506335</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.005362018236596737</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1450,9 +1432,6 @@
       </c>
       <c r="AU7" t="n">
         <v>-0.006083569923689727</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>-0.005857599011782486</v>
       </c>
     </row>
   </sheetData>
